--- a/biology/Médecine/Haptophobie/Haptophobie.xlsx
+++ b/biology/Médecine/Haptophobie/Haptophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec ancien ἄπτω/hapto, « toucher » et de φόβος / phobos, « peur », l'haptophobie[1] (également connue sous les noms d'aphephobie[1], haphophobia[2], hapnophobia, haptephobia[1], haptophobia[1],[2], et thixophobia[1]) est une phobie rare qui implique la crainte de toucher ou d'être touché. Il s'agit d'une exagération aiguë des tendances normales de protection de l'espace personnel, exprimé comme une crainte de contamination ou d'invasion[3].
-Parfois, la peur est limitée au toucher d'une personne de sexe opposé. Chez les femmes, celle-ci est souvent associée à une peur d'agression sexuelle. Michel Dorais, auteur de Ça arrive aussi aux garçons, l'abus sexuel au masculin, rapporte que beaucoup de garçons qui ont été victimes d'abus sexuels ont peur d'être touchés[4].
-La sensation éprouvée par l'haptophobe peut se caractériser par des frissons et une angoisse. Il se peut aussi qu'il fasse une crise d'angoisse lorsqu'il est dans un lieu où il est collé à d'autres personnes[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec ancien ἄπτω/hapto, « toucher » et de φόβος / phobos, « peur », l'haptophobie (également connue sous les noms d'aphephobie, haphophobia, hapnophobia, haptephobia, haptophobia et thixophobia) est une phobie rare qui implique la crainte de toucher ou d'être touché. Il s'agit d'une exagération aiguë des tendances normales de protection de l'espace personnel, exprimé comme une crainte de contamination ou d'invasion.
+Parfois, la peur est limitée au toucher d'une personne de sexe opposé. Chez les femmes, celle-ci est souvent associée à une peur d'agression sexuelle. Michel Dorais, auteur de Ça arrive aussi aux garçons, l'abus sexuel au masculin, rapporte que beaucoup de garçons qui ont été victimes d'abus sexuels ont peur d'être touchés.
+La sensation éprouvée par l'haptophobe peut se caractériser par des frissons et une angoisse. Il se peut aussi qu'il fasse une crise d'angoisse lorsqu'il est dans un lieu où il est collé à d'autres personnes.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Comme avec d'autres phobies et des conditions d'anxiété, l'haptophobie peut survenir avec des symptômes d'anxiété ou liés au stress qui en diffèrent. Une liste non exhaustive de ces symptômes peut inclure[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Comme avec d'autres phobies et des conditions d'anxiété, l'haptophobie peut survenir avec des symptômes d'anxiété ou liés au stress qui en diffèrent. Une liste non exhaustive de ces symptômes peut inclure :
 Douleurs de poitrine
 Sensation d'étouffement
 Des éclairs froids ou chauds
@@ -561,10 +575,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans l'autisme
-Cet attribut est très souvent un symptôme du TSA. De multitudes personnes autistes ont une forte aversion à être touchées par une personne, principalement par des causes sensorielles ; la personne a une sensibilité accrue au toucher et peut ressentir un contact intime comme douloureux, imprévu ou envahissant. D'ailleurs, les personnes autistes sont en quelque sorte reconnues pour avoir cette aversion qui peut sembler exagérée ou étrange. Parfois, il se peut que la personne autiste soit germophobe, avec ou sans sensibilité atténuée au toucher.
-Trouble obsessionnel-compulsif
-La phobie des microbes ou de toucher est considérée comme l'une des phobies les plus communes chez les personnes présentant un TOC, un trouble anxieux relativement sévère caractérisé par des pensées intrusives incontrôlables générant une appréhension intense et menant à des gestes et rituels compulsifs, souvent irrationnels, qui peuvent affecter la vie au quotidien. A cause de cette phobie, les personnes ayant un TOC seront terrifiées à l'idée de toucher certaines choses ou tout en général (généralement des choses que l'on touche au quotidien) ou d'être touchées par une personne de peur d'être infectées par un microbe ou de se sentir "sale". Cette phobie mène généralement à un lavage des mains compulsif malgré le fait que la personne sache que sa peur est irrationnelle. Cette compulsion est un concept extrêmement iconique et populaire du trouble ; dans la majorité des cultures, on considère que les personnes ayant un TOC sont obsédées par le fait de se laver les mains après avoir touché quelque chose, tout comme les gens s'imaginent souvent à tort qu'une personne schizophrène est toujours sauvage et meurtrière ou qu'elle possède plusieurs identités, ce que l'on représente le plus souvent dans les médias comme un stéréotype du TOC. Pourtant, contrairement à la majorité des stéréotypes sur d'autres troubles psychologiques, cette idée populaire n'est pas tout à fait trompeuse puisque les personnes affectées du TOC ont très fréquemment peur des microbes et se lavent compulsivement, donc cela peut aider à mieux comprendre le trouble à un niveau de base.
+          <t>Dans l'autisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet attribut est très souvent un symptôme du TSA. De multitudes personnes autistes ont une forte aversion à être touchées par une personne, principalement par des causes sensorielles ; la personne a une sensibilité accrue au toucher et peut ressentir un contact intime comme douloureux, imprévu ou envahissant. D'ailleurs, les personnes autistes sont en quelque sorte reconnues pour avoir cette aversion qui peut sembler exagérée ou étrange. Parfois, il se peut que la personne autiste soit germophobe, avec ou sans sensibilité atténuée au toucher.
 </t>
         </is>
       </c>
@@ -590,10 +607,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Relation avec les troubles psychologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trouble obsessionnel-compulsif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phobie des microbes ou de toucher est considérée comme l'une des phobies les plus communes chez les personnes présentant un TOC, un trouble anxieux relativement sévère caractérisé par des pensées intrusives incontrôlables générant une appréhension intense et menant à des gestes et rituels compulsifs, souvent irrationnels, qui peuvent affecter la vie au quotidien. A cause de cette phobie, les personnes ayant un TOC seront terrifiées à l'idée de toucher certaines choses ou tout en général (généralement des choses que l'on touche au quotidien) ou d'être touchées par une personne de peur d'être infectées par un microbe ou de se sentir "sale". Cette phobie mène généralement à un lavage des mains compulsif malgré le fait que la personne sache que sa peur est irrationnelle. Cette compulsion est un concept extrêmement iconique et populaire du trouble ; dans la majorité des cultures, on considère que les personnes ayant un TOC sont obsédées par le fait de se laver les mains après avoir touché quelque chose, tout comme les gens s'imaginent souvent à tort qu'une personne schizophrène est toujours sauvage et meurtrière ou qu'elle possède plusieurs identités, ce que l'on représente le plus souvent dans les médias comme un stéréotype du TOC. Pourtant, contrairement à la majorité des stéréotypes sur d'autres troubles psychologiques, cette idée populaire n'est pas tout à fait trompeuse puisque les personnes affectées du TOC ont très fréquemment peur des microbes et se lavent compulsivement, donc cela peut aider à mieux comprendre le trouble à un niveau de base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haptophobie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haptophobie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Guts dans Berserk.
 Victor dans Mortel
